--- a/data/raw/cnss/Excel-–-Regimen-Subsidiado-Aportes-Pagos-Seguro-Familiar-de-Salud-Enero-2004-octubre-2024-a-Noviembre-2024-1.xlsx
+++ b/data/raw/cnss/Excel-–-Regimen-Subsidiado-Aportes-Pagos-Seguro-Familiar-de-Salud-Enero-2004-octubre-2024-a-Noviembre-2024-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.garcia\OneDrive - cnss.gob.do\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afe3eca1c425187e/Escritorio/Proyecto Humano/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7AA43F58C45B17BA850E938FE261E7D3F1948CCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{191A5DEF-13C3-4D1C-9FB8-788A7F357240}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Recaudo y pagos" sheetId="1" r:id="rId1"/>
@@ -21,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -603,49 +593,49 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Millares" xfId="42" builtinId="3"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="42" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,19 +912,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4481,17 +4471,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="da0356f3-83b3-42db-a4ea-d0e11b8bbdec">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8dedfef6-c5ba-4a3e-af87-6a55fe944720" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C704E2B479DFD448AE0C9C92805B4070" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="12eb4cc385c4a3b433e5087afb9aa53a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="da0356f3-83b3-42db-a4ea-d0e11b8bbdec" xmlns:ns3="8dedfef6-c5ba-4a3e-af87-6a55fe944720" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8761234c910198ba2f9161f01a1c1d93" ns2:_="" ns3:_="">
     <xsd:import namespace="da0356f3-83b3-42db-a4ea-d0e11b8bbdec"/>
@@ -4726,6 +4705,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="da0356f3-83b3-42db-a4ea-d0e11b8bbdec">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8dedfef6-c5ba-4a3e-af87-6a55fe944720" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07DE8304-ADB7-456A-B0FD-3F7AC40D243A}">
   <ds:schemaRefs>
@@ -4735,23 +4725,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69823C62-6CAB-42BF-8FD9-3BF2AD750D59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="8dedfef6-c5ba-4a3e-af87-6a55fe944720"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="da0356f3-83b3-42db-a4ea-d0e11b8bbdec"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC87A7EF-A973-43FA-B2F2-DA516AC7E9CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4768,4 +4741,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69823C62-6CAB-42BF-8FD9-3BF2AD750D59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="8dedfef6-c5ba-4a3e-af87-6a55fe944720"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da0356f3-83b3-42db-a4ea-d0e11b8bbdec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>